--- a/Excel/BSC_cs_and_IT.xlsx
+++ b/Excel/BSC_cs_and_IT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="348">
   <si>
     <t>Nidhish Joshi</t>
   </si>
@@ -1170,6 +1170,9 @@
   <si>
     <t>yashbhosle777@gmail.com</t>
   </si>
+  <si>
+    <t>Shikha@gmail.com</t>
+  </si>
 </sst>
 </file>
 
@@ -1178,7 +1181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1215,6 +1218,14 @@
       <color rgb="FF9A0004"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1366,10 +1377,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1416,20 +1428,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1744,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C151" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,17 +1783,17 @@
       <c r="D1" s="3">
         <v>8370070007</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="19"/>
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17"/>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1899,8 +1915,8 @@
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1972,8 +1988,8 @@
       <c r="G9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2450,14 +2466,16 @@
       </c>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="5">
         <v>2014</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="20" t="s">
+        <v>347</v>
+      </c>
       <c r="D29" s="9">
         <v>9754969694</v>
       </c>
@@ -2518,8 +2536,8 @@
       <c r="G31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2539,8 +2557,8 @@
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2560,8 +2578,8 @@
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2583,8 +2601,8 @@
       <c r="G34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -2606,8 +2624,8 @@
       <c r="G35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -2629,8 +2647,8 @@
       <c r="G36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -2652,8 +2670,8 @@
       <c r="G37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -2725,8 +2743,8 @@
       <c r="G40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -2823,8 +2841,8 @@
       <c r="G44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -2846,8 +2864,8 @@
       <c r="G45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -2869,8 +2887,8 @@
       <c r="G46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -2917,8 +2935,8 @@
       <c r="G48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -2940,8 +2958,8 @@
       <c r="G49" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -2963,8 +2981,8 @@
       <c r="G50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -3009,8 +3027,8 @@
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
@@ -3032,8 +3050,8 @@
       <c r="G53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -3053,8 +3071,8 @@
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -3076,8 +3094,8 @@
       <c r="G55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -3149,8 +3167,8 @@
       <c r="G58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3172,8 +3190,8 @@
       <c r="G59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
     </row>
     <row r="60" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -3195,8 +3213,8 @@
       <c r="G60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
     </row>
     <row r="61" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -3216,8 +3234,8 @@
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -3239,8 +3257,8 @@
       <c r="G62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -3260,8 +3278,8 @@
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="19"/>
     </row>
     <row r="64" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -3281,8 +3299,8 @@
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="19"/>
     </row>
     <row r="65" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -3302,8 +3320,8 @@
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -3323,8 +3341,8 @@
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -3344,8 +3362,8 @@
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -3365,8 +3383,8 @@
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
@@ -3386,8 +3404,8 @@
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="19"/>
     </row>
     <row r="70" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
@@ -3407,8 +3425,8 @@
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="19"/>
     </row>
     <row r="71" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -3428,8 +3446,8 @@
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="11"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="19"/>
     </row>
     <row r="72" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -3449,8 +3467,8 @@
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="19"/>
     </row>
     <row r="73" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -3470,8 +3488,8 @@
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="19"/>
     </row>
     <row r="74" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -3491,8 +3509,8 @@
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="11"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="19"/>
     </row>
     <row r="75" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -3512,8 +3530,8 @@
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="17"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="19"/>
     </row>
     <row r="76" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
@@ -3533,8 +3551,8 @@
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="19"/>
     </row>
     <row r="77" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -3554,8 +3572,8 @@
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19"/>
     </row>
     <row r="78" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -3575,8 +3593,8 @@
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="17"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="19"/>
     </row>
     <row r="79" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -3596,8 +3614,8 @@
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="17"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="19"/>
     </row>
     <row r="80" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
@@ -3617,8 +3635,8 @@
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="11"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -3638,8 +3656,8 @@
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
@@ -3659,8 +3677,8 @@
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
@@ -3680,8 +3698,8 @@
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="11"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="17"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="19"/>
     </row>
     <row r="84" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
@@ -3701,8 +3719,8 @@
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
@@ -3722,8 +3740,8 @@
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="19"/>
     </row>
     <row r="86" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
@@ -3743,8 +3761,8 @@
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="11"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="17"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="19"/>
     </row>
     <row r="87" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
@@ -3764,8 +3782,8 @@
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
@@ -3785,8 +3803,8 @@
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -3806,8 +3824,8 @@
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -3827,8 +3845,8 @@
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -3848,8 +3866,8 @@
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="19"/>
     </row>
     <row r="92" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -3869,8 +3887,8 @@
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="19"/>
     </row>
     <row r="93" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
@@ -3890,8 +3908,8 @@
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="11"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
@@ -3911,8 +3929,8 @@
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
@@ -4034,8 +4052,8 @@
       <c r="G99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
@@ -4082,8 +4100,8 @@
       <c r="G101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
@@ -4103,8 +4121,8 @@
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="11"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="19"/>
     </row>
     <row r="103" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
@@ -4151,8 +4169,8 @@
       <c r="G104" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H104" s="16"/>
-      <c r="I104" s="17"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -4174,8 +4192,8 @@
       <c r="G105" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H105" s="16"/>
-      <c r="I105" s="17"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
@@ -4222,8 +4240,8 @@
       <c r="G107" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H107" s="16"/>
-      <c r="I107" s="17"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="19"/>
     </row>
     <row r="108" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
@@ -4270,8 +4288,8 @@
       <c r="G109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H109" s="16"/>
-      <c r="I109" s="17"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="19"/>
     </row>
     <row r="110" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
@@ -4293,8 +4311,8 @@
       <c r="G110" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H110" s="16"/>
-      <c r="I110" s="17"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
     </row>
     <row r="111" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4391,8 +4409,8 @@
       <c r="G114" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H114" s="16"/>
-      <c r="I114" s="17"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
@@ -4412,8 +4430,8 @@
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="17"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
@@ -4433,8 +4451,8 @@
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="17"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -4454,8 +4472,8 @@
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="11"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="17"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="19"/>
     </row>
     <row r="118" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -4475,8 +4493,8 @@
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="17"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="19"/>
     </row>
     <row r="119" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
@@ -4496,8 +4514,8 @@
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="11"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="17"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
@@ -4517,8 +4535,8 @@
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="17"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="19"/>
     </row>
     <row r="121" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -4538,8 +4556,8 @@
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="11"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="17"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -4559,8 +4577,8 @@
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="17"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="19"/>
     </row>
     <row r="123" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
@@ -4580,8 +4598,8 @@
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="17"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -4601,8 +4619,8 @@
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="17"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="19"/>
     </row>
     <row r="125" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
@@ -4622,8 +4640,8 @@
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="11"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="17"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="19"/>
     </row>
     <row r="126" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
@@ -4643,8 +4661,8 @@
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="11"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="17"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
@@ -4664,8 +4682,8 @@
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="11"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="17"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
@@ -4685,8 +4703,8 @@
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="11"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="17"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="19"/>
     </row>
     <row r="129" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
@@ -4706,8 +4724,8 @@
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="11"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="17"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="19"/>
     </row>
     <row r="130" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
@@ -4727,8 +4745,8 @@
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="11"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="17"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="19"/>
     </row>
     <row r="131" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
@@ -4748,8 +4766,8 @@
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="17"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
@@ -4769,8 +4787,8 @@
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="11"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="17"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -4790,8 +4808,8 @@
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="11"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="17"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
@@ -4811,8 +4829,8 @@
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="11"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="17"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="19"/>
     </row>
     <row r="135" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
@@ -4832,8 +4850,8 @@
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="11"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="17"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="19"/>
     </row>
     <row r="136" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
@@ -4853,8 +4871,8 @@
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="11"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="17"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="19"/>
     </row>
     <row r="137" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
@@ -4874,8 +4892,8 @@
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="11"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="17"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="19"/>
     </row>
     <row r="138" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
@@ -4895,8 +4913,8 @@
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="11"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="17"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="19"/>
     </row>
     <row r="139" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
@@ -4916,8 +4934,8 @@
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="11"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="17"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="19"/>
     </row>
     <row r="140" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
@@ -4937,8 +4955,8 @@
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="11"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="17"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="19"/>
     </row>
     <row r="141" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
@@ -4958,8 +4976,8 @@
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="11"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="17"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="19"/>
     </row>
     <row r="142" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
@@ -4979,8 +4997,8 @@
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="11"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="17"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="19"/>
     </row>
     <row r="143" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
@@ -5000,8 +5018,8 @@
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="11"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="17"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="19"/>
     </row>
     <row r="144" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -5021,8 +5039,8 @@
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="11"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="17"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
@@ -5042,8 +5060,8 @@
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="17"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="19"/>
     </row>
     <row r="146" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
@@ -5063,8 +5081,8 @@
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="11"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="17"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="19"/>
     </row>
     <row r="147" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
@@ -5084,8 +5102,8 @@
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="11"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="17"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="19"/>
     </row>
     <row r="148" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
@@ -5105,8 +5123,8 @@
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="17"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
@@ -5126,8 +5144,8 @@
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="17"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="19"/>
     </row>
     <row r="150" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
@@ -5147,297 +5165,11 @@
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="17"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="H140:I140"/>
     <mergeCell ref="E150:F150"/>
     <mergeCell ref="H150:I150"/>
     <mergeCell ref="E147:F147"/>
@@ -5452,6 +5184,292 @@
     <mergeCell ref="H145:I145"/>
     <mergeCell ref="E146:F146"/>
     <mergeCell ref="H146:I146"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="mailto:navinajain89@gmail.com"/>
@@ -5600,6 +5618,7 @@
     <hyperlink ref="C148" r:id="rId144" display="mailto:patelvijendra55@gmail.com"/>
     <hyperlink ref="C149" r:id="rId145" display="mailto:rathorev567@gmail.com"/>
     <hyperlink ref="C150" r:id="rId146" display="mailto:yashbhosle777@gmail.com"/>
+    <hyperlink ref="C29" r:id="rId147"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
